--- a/kondycje.xlsx
+++ b/kondycje.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_Code\Percepcja\Moje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC14814-B784-41B4-9629-F925CC20ECE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBC3AF4-95CE-45C9-9F1F-7056EFCB92E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="900" windowWidth="20085" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B782"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,1205 +374,6254 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2*2</f>
-        <v>0.66666666666666663</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="B3">
-        <f>B$2+B2</f>
-        <v>0.66666666666666663</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>A2*3</f>
-        <v>1</v>
+        <v>4.6666666666666661</v>
       </c>
       <c r="B4">
-        <f>B$2+B3</f>
-        <v>1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>A$2+A4</f>
-        <v>1.3333333333333333</v>
+        <v>4.4999999999999991</v>
       </c>
       <c r="B5">
-        <f>B$2+B4</f>
-        <v>1.3333333333333333</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ref="A6:B69" si="0">A$2+A5</f>
-        <v>1.6666666666666665</v>
+        <v>4.3333333333333321</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666665</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>1.9999999999999998</v>
+        <v>4.1666666666666652</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>1.9999999999999998</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
-        <v>2.333333333333333</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>2.333333333333333</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>3.8333333333333321</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.6666666666666661</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
+        <v>3.4999999999999991</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>3.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>3.666666666666667</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.1666666666666661</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
-        <v>4.6666666666666661</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>4.6666666666666661</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
-        <v>4.9999999999999991</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>4.9999999999999991</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
-        <v>5.3333333333333321</v>
+        <v>2.5</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>5.3333333333333321</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="0"/>
-        <v>5.6666666666666652</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>5.6666666666666652</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="0"/>
-        <v>5.9999999999999982</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>5.9999999999999982</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="0"/>
-        <v>6.3333333333333313</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>6.3333333333333313</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666643</v>
+        <v>1.8333333333333339</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666643</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="0"/>
-        <v>6.9999999999999973</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>6.9999999999999973</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="0"/>
-        <v>7.3333333333333304</v>
+        <v>1.5</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>7.3333333333333304</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="0"/>
-        <v>7.6666666666666634</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>7.6666666666666634</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
-        <v>7.9999999999999964</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>7.9999999999999964</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333304</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333304</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="0"/>
-        <v>8.6666666666666643</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>8.6666666666666643</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="0"/>
-        <v>8.9999999999999982</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>8.9999999999999982</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="0"/>
-        <v>9.3333333333333321</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>9.3333333333333321</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="0"/>
-        <v>9.6666666666666661</v>
+        <v>0.33333333333333348</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
-        <v>9.6666666666666661</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0.1666666666666668</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="0"/>
-        <v>10.333333333333334</v>
+        <v>1.6653345369377351E-16</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
-        <v>10.333333333333334</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="0"/>
-        <v>10.666666666666668</v>
+        <v>-0.16666666666666649</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
-        <v>10.666666666666668</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="0"/>
-        <v>11.000000000000002</v>
+        <v>-0.33333333333333309</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
-        <v>11.000000000000002</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="0"/>
-        <v>11.333333333333336</v>
+        <v>-0.49999999999999978</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
-        <v>11.333333333333336</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="0"/>
-        <v>11.66666666666667</v>
+        <v>-0.66666666666666641</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
-        <v>11.66666666666667</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="0"/>
-        <v>12.000000000000004</v>
+        <v>-0.83333333333333304</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
-        <v>12.000000000000004</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="0"/>
-        <v>12.333333333333337</v>
+        <v>-0.99999999999999967</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
-        <v>12.333333333333337</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="0"/>
-        <v>12.666666666666671</v>
+        <v>-1.1666666666666661</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
-        <v>12.666666666666671</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="0"/>
-        <v>13.000000000000005</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
-        <v>13.000000000000005</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="0"/>
-        <v>13.333333333333339</v>
+        <v>-1.5</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
-        <v>13.333333333333339</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="0"/>
-        <v>13.666666666666673</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
-        <v>13.666666666666673</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="0"/>
-        <v>14.000000000000007</v>
+        <v>-1.833333333333333</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
-        <v>14.000000000000007</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="0"/>
-        <v>14.333333333333341</v>
+        <v>-2</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
-        <v>14.333333333333341</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="0"/>
-        <v>14.666666666666675</v>
+        <v>-2.166666666666667</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
-        <v>14.666666666666675</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="0"/>
-        <v>15.000000000000009</v>
+        <v>-2.333333333333333</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
-        <v>15.000000000000009</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="0"/>
-        <v>15.333333333333343</v>
+        <v>-2.5</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
-        <v>15.333333333333343</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="0"/>
-        <v>15.666666666666677</v>
+        <v>-2.6666666666666661</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
-        <v>15.666666666666677</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="0"/>
-        <v>16.000000000000011</v>
+        <v>-2.833333333333333</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
-        <v>16.000000000000011</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="0"/>
-        <v>16.333333333333343</v>
+        <v>-2.9999999999999991</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
-        <v>16.333333333333343</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="0"/>
-        <v>16.666666666666675</v>
+        <v>-3.1666666666666661</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
-        <v>16.666666666666675</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="0"/>
-        <v>17.000000000000007</v>
+        <v>-3.3333333333333321</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
-        <v>17.000000000000007</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="0"/>
-        <v>17.333333333333339</v>
+        <v>-3.4999999999999991</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
-        <v>17.333333333333339</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="0"/>
-        <v>17.666666666666671</v>
+        <v>-3.6666666666666652</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
-        <v>17.666666666666671</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="0"/>
-        <v>18.000000000000004</v>
+        <v>-3.8333333333333321</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
-        <v>18.000000000000004</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="0"/>
-        <v>18.333333333333336</v>
+        <v>-3.9999999999999978</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
-        <v>18.333333333333336</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="0"/>
-        <v>18.666666666666668</v>
+        <v>-4.1666666666666652</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
-        <v>18.666666666666668</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <v>-4.3333333333333321</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="0"/>
-        <v>19.333333333333332</v>
+        <v>-4.4999999999999991</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
-        <v>19.333333333333332</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="0"/>
-        <v>19.666666666666664</v>
+        <v>-4.6666666666666661</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
-        <v>19.666666666666664</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="0"/>
-        <v>19.999999999999996</v>
+        <v>-4.833333333333333</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
-        <v>19.999999999999996</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="0"/>
-        <v>20.333333333333329</v>
+        <v>-5</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
-        <v>20.333333333333329</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="0"/>
-        <v>20.666666666666661</v>
+        <v>-5.166666666666667</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
-        <v>20.666666666666661</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="0"/>
-        <v>20.999999999999993</v>
+        <v>-5.3333333333333339</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
-        <v>20.999999999999993</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="0"/>
-        <v>21.333333333333325</v>
+        <v>-5.5000000000000009</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
-        <v>21.333333333333325</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="0"/>
-        <v>21.666666666666657</v>
+        <v>-5.6666666666666679</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
-        <v>21.666666666666657</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="0"/>
-        <v>21.999999999999989</v>
+        <v>-5.8333333333333348</v>
       </c>
       <c r="B67">
-        <f t="shared" si="0"/>
-        <v>21.999999999999989</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="0"/>
-        <v>22.333333333333321</v>
+        <v>-6.0000000000000018</v>
       </c>
       <c r="B68">
-        <f t="shared" si="0"/>
-        <v>22.333333333333321</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="0"/>
-        <v>22.666666666666654</v>
+        <v>-6.1666666666666687</v>
       </c>
       <c r="B69">
-        <f t="shared" si="0"/>
-        <v>22.666666666666654</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" ref="A70:B133" si="1">A$2+A69</f>
-        <v>22.999999999999986</v>
+        <v>-6.3333333333333357</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
-        <v>22.999999999999986</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="1"/>
-        <v>23.333333333333318</v>
+        <v>-6.5000000000000027</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
-        <v>23.333333333333318</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="1"/>
-        <v>23.66666666666665</v>
+        <v>-6.6666666666666696</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
-        <v>23.66666666666665</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="1"/>
-        <v>23.999999999999982</v>
+        <v>-6.8333333333333366</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
-        <v>23.999999999999982</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="1"/>
-        <v>24.333333333333314</v>
+        <v>-7.0000000000000044</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
-        <v>24.333333333333314</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="1"/>
-        <v>24.666666666666647</v>
+        <v>-7.1666666666666714</v>
       </c>
       <c r="B75">
-        <f t="shared" si="1"/>
-        <v>24.666666666666647</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="1"/>
-        <v>24.999999999999979</v>
+        <v>-7.3333333333333366</v>
       </c>
       <c r="B76">
-        <f t="shared" si="1"/>
-        <v>24.999999999999979</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="1"/>
-        <v>25.333333333333311</v>
+        <v>-7.5000000000000044</v>
       </c>
       <c r="B77">
-        <f t="shared" si="1"/>
-        <v>25.333333333333311</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="1"/>
-        <v>25.666666666666643</v>
+        <v>-7.6666666666666714</v>
       </c>
       <c r="B78">
-        <f t="shared" si="1"/>
-        <v>25.666666666666643</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="1"/>
-        <v>25.999999999999975</v>
+        <v>-7.8333333333333384</v>
       </c>
       <c r="B79">
-        <f t="shared" si="1"/>
-        <v>25.999999999999975</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="1"/>
-        <v>26.333333333333307</v>
+        <v>-8.0000000000000053</v>
       </c>
       <c r="B80">
-        <f t="shared" si="1"/>
-        <v>26.333333333333307</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="1"/>
-        <v>26.666666666666639</v>
+        <v>-8.1666666666666714</v>
       </c>
       <c r="B81">
-        <f t="shared" si="1"/>
-        <v>26.666666666666639</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="1"/>
-        <v>26.999999999999972</v>
+        <v>-8.3333333333333375</v>
       </c>
       <c r="B82">
-        <f t="shared" si="1"/>
-        <v>26.999999999999972</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="1"/>
-        <v>27.333333333333304</v>
+        <v>-8.5000000000000036</v>
       </c>
       <c r="B83">
-        <f t="shared" si="1"/>
-        <v>27.333333333333304</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="1"/>
-        <v>27.666666666666636</v>
+        <v>-8.6666666666666696</v>
       </c>
       <c r="B84">
-        <f t="shared" si="1"/>
-        <v>27.666666666666636</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="1"/>
-        <v>27.999999999999968</v>
+        <v>-8.8333333333333357</v>
       </c>
       <c r="B85">
-        <f t="shared" si="1"/>
-        <v>27.999999999999968</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="1"/>
-        <v>28.3333333333333</v>
+        <v>-9.0000000000000018</v>
       </c>
       <c r="B86">
-        <f t="shared" si="1"/>
-        <v>28.3333333333333</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="1"/>
-        <v>28.666666666666632</v>
+        <v>-9.1666666666666679</v>
       </c>
       <c r="B87">
-        <f t="shared" si="1"/>
-        <v>28.666666666666632</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="1"/>
-        <v>28.999999999999964</v>
+        <v>-9.3333333333333339</v>
       </c>
       <c r="B88">
-        <f t="shared" si="1"/>
-        <v>28.999999999999964</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="1"/>
-        <v>29.333333333333297</v>
+        <v>-9.5</v>
       </c>
       <c r="B89">
-        <f t="shared" si="1"/>
-        <v>29.333333333333297</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="1"/>
-        <v>29.666666666666629</v>
+        <v>-9.6666666666666661</v>
       </c>
       <c r="B90">
-        <f t="shared" si="1"/>
-        <v>29.666666666666629</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="1"/>
-        <v>29.999999999999961</v>
+        <v>-9.8333333333333321</v>
       </c>
       <c r="B91">
-        <f t="shared" si="1"/>
-        <v>29.999999999999961</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="1"/>
-        <v>30.333333333333293</v>
+        <v>-9.9999999999999982</v>
       </c>
       <c r="B92">
-        <f t="shared" si="1"/>
-        <v>30.333333333333293</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="1"/>
-        <v>30.666666666666625</v>
+        <v>-10.166666666666661</v>
       </c>
       <c r="B93">
-        <f t="shared" si="1"/>
-        <v>30.666666666666625</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="1"/>
-        <v>30.999999999999957</v>
+        <v>-10.33333333333333</v>
       </c>
       <c r="B94">
-        <f t="shared" si="1"/>
-        <v>30.999999999999957</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="1"/>
-        <v>31.33333333333329</v>
+        <v>-10.5</v>
       </c>
       <c r="B95">
-        <f t="shared" si="1"/>
-        <v>31.33333333333329</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="1"/>
-        <v>31.666666666666622</v>
+        <v>-10.666666666666661</v>
       </c>
       <c r="B96">
-        <f t="shared" si="1"/>
-        <v>31.666666666666622</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="1"/>
-        <v>31.999999999999954</v>
+        <v>-10.83333333333333</v>
       </c>
       <c r="B97">
-        <f t="shared" si="1"/>
-        <v>31.999999999999954</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="1"/>
-        <v>32.333333333333286</v>
+        <v>-10.999999999999989</v>
       </c>
       <c r="B98">
-        <f t="shared" si="1"/>
-        <v>32.333333333333286</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="1"/>
-        <v>32.666666666666622</v>
+        <v>-11.166666666666661</v>
       </c>
       <c r="B99">
-        <f t="shared" si="1"/>
-        <v>32.666666666666622</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="1"/>
-        <v>32.999999999999957</v>
+        <v>-11.33333333333333</v>
       </c>
       <c r="B100">
-        <f t="shared" si="1"/>
-        <v>32.999999999999957</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="1"/>
-        <v>33.333333333333293</v>
+        <v>-11.499999999999989</v>
       </c>
       <c r="B101">
-        <f t="shared" si="1"/>
-        <v>33.333333333333293</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="1"/>
-        <v>33.666666666666629</v>
+        <v>-11.666666666666661</v>
       </c>
       <c r="B102">
-        <f t="shared" si="1"/>
-        <v>33.666666666666629</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="1"/>
-        <v>33.999999999999964</v>
+        <v>-11.83333333333333</v>
       </c>
       <c r="B103">
-        <f t="shared" si="1"/>
-        <v>33.999999999999964</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="1"/>
-        <v>34.3333333333333</v>
+        <v>-11.999999999999989</v>
       </c>
       <c r="B104">
-        <f t="shared" si="1"/>
-        <v>34.3333333333333</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="1"/>
-        <v>34.666666666666636</v>
+        <v>-12.166666666666661</v>
       </c>
       <c r="B105">
-        <f t="shared" si="1"/>
-        <v>34.666666666666636</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="1"/>
-        <v>34.999999999999972</v>
+        <v>-12.33333333333332</v>
       </c>
       <c r="B106">
-        <f t="shared" si="1"/>
-        <v>34.999999999999972</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="1"/>
-        <v>35.333333333333307</v>
+        <v>-12.499999999999989</v>
       </c>
       <c r="B107">
-        <f t="shared" si="1"/>
-        <v>35.333333333333307</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="1"/>
-        <v>35.666666666666643</v>
+        <v>-12.666666666666661</v>
       </c>
       <c r="B108">
-        <f t="shared" si="1"/>
-        <v>35.666666666666643</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="1"/>
-        <v>35.999999999999979</v>
+        <v>-12.83333333333332</v>
       </c>
       <c r="B109">
-        <f t="shared" si="1"/>
-        <v>35.999999999999979</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="1"/>
-        <v>36.333333333333314</v>
+        <v>-12.999999999999989</v>
       </c>
       <c r="B110">
-        <f t="shared" si="1"/>
-        <v>36.333333333333314</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f t="shared" si="1"/>
-        <v>36.66666666666665</v>
+        <v>-13.16666666666665</v>
       </c>
       <c r="B111">
-        <f t="shared" si="1"/>
-        <v>36.66666666666665</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f t="shared" si="1"/>
-        <v>36.999999999999986</v>
+        <v>-13.33333333333332</v>
       </c>
       <c r="B112">
-        <f t="shared" si="1"/>
-        <v>36.999999999999986</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" si="1"/>
-        <v>37.333333333333321</v>
+        <v>-13.499999999999989</v>
       </c>
       <c r="B113">
-        <f t="shared" si="1"/>
-        <v>37.333333333333321</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f t="shared" si="1"/>
-        <v>37.666666666666657</v>
+        <v>-13.66666666666665</v>
       </c>
       <c r="B114">
-        <f t="shared" si="1"/>
-        <v>37.666666666666657</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f t="shared" si="1"/>
-        <v>37.999999999999993</v>
+        <v>-13.83333333333332</v>
       </c>
       <c r="B115">
-        <f t="shared" si="1"/>
-        <v>37.999999999999993</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f t="shared" si="1"/>
-        <v>38.333333333333329</v>
+        <v>-13.99999999999998</v>
       </c>
       <c r="B116">
-        <f t="shared" si="1"/>
-        <v>38.333333333333329</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f t="shared" si="1"/>
-        <v>38.666666666666664</v>
+        <v>-14.16666666666665</v>
       </c>
       <c r="B117">
-        <f t="shared" si="1"/>
-        <v>38.666666666666664</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <v>-14.33333333333332</v>
       </c>
       <c r="B118">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f t="shared" si="1"/>
-        <v>39.333333333333336</v>
+        <v>-14.49999999999998</v>
       </c>
       <c r="B119">
-        <f t="shared" si="1"/>
-        <v>39.333333333333336</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f t="shared" si="1"/>
-        <v>39.666666666666671</v>
+        <v>-14.66666666666665</v>
       </c>
       <c r="B120">
-        <f t="shared" si="1"/>
-        <v>39.666666666666671</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f t="shared" si="1"/>
-        <v>40.000000000000007</v>
+        <v>-14.833333333333311</v>
       </c>
       <c r="B121">
-        <f t="shared" si="1"/>
-        <v>40.000000000000007</v>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B122">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B123">
+        <v>-4.833333333333333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B124">
+        <v>-4.6666666666666661</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B125">
+        <v>-4.4999999999999991</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B126">
+        <v>-4.3333333333333321</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B127">
+        <v>-4.1666666666666652</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B128">
+        <v>-3.9999999999999991</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B129">
+        <v>-3.8333333333333321</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B130">
+        <v>-3.6666666666666661</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B131">
+        <v>-3.4999999999999991</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B132">
+        <v>-3.333333333333333</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B133">
+        <v>-3.1666666666666661</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B134">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B135">
+        <v>-2.833333333333333</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B136">
+        <v>-2.666666666666667</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B137">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B138">
+        <v>-2.333333333333333</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B139">
+        <v>-2.166666666666667</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B140">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B141">
+        <v>-1.8333333333333339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B142">
+        <v>-1.666666666666667</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B143">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B144">
+        <v>-1.333333333333333</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B145">
+        <v>-1.166666666666667</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B147">
+        <v>-0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B148">
+        <v>-0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B149">
+        <v>-0.50000000000000011</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B150">
+        <v>-0.33333333333333348</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B151">
+        <v>-0.1666666666666668</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B152">
+        <v>-1.6653345369377351E-16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B153">
+        <v>0.16666666666666649</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B154">
+        <v>0.33333333333333309</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B155">
+        <v>0.49999999999999978</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B156">
+        <v>0.66666666666666641</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B157">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B158">
+        <v>0.99999999999999967</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B159">
+        <v>1.1666666666666661</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B160">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B161">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B162">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B163">
+        <v>1.833333333333333</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B165">
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B166">
+        <v>2.333333333333333</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B167">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B168">
+        <v>2.6666666666666661</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B169">
+        <v>2.833333333333333</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B170">
+        <v>2.9999999999999991</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B171">
+        <v>3.1666666666666661</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B172">
+        <v>3.3333333333333321</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B173">
+        <v>3.4999999999999991</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B174">
+        <v>3.6666666666666652</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B175">
+        <v>3.8333333333333321</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B176">
+        <v>3.9999999999999978</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B177">
+        <v>4.1666666666666652</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B178">
+        <v>4.3333333333333321</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B179">
+        <v>4.4999999999999991</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B180">
+        <v>4.6666666666666661</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B181">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B183">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B184">
+        <v>5.3333333333333339</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B185">
+        <v>5.5000000000000009</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B186">
+        <v>5.6666666666666679</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B187">
+        <v>5.8333333333333348</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B188">
+        <v>6.0000000000000018</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B189">
+        <v>6.1666666666666687</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B190">
+        <v>6.3333333333333357</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B191">
+        <v>6.5000000000000027</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B192">
+        <v>6.6666666666666696</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B193">
+        <v>6.8333333333333366</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B194">
+        <v>7.0000000000000044</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B195">
+        <v>7.1666666666666714</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B196">
+        <v>7.3333333333333366</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B197">
+        <v>7.5000000000000044</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B198">
+        <v>7.6666666666666714</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B199">
+        <v>7.8333333333333384</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B200">
+        <v>8.0000000000000053</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B201">
+        <v>8.1666666666666714</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B202">
+        <v>8.3333333333333375</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B203">
+        <v>8.5000000000000036</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B204">
+        <v>8.6666666666666696</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B205">
+        <v>8.8333333333333357</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B206">
+        <v>9.0000000000000018</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B207">
+        <v>9.1666666666666679</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B208">
+        <v>9.3333333333333339</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B209">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B210">
+        <v>9.6666666666666661</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B211">
+        <v>9.8333333333333321</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B212">
+        <v>9.9999999999999982</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B213">
+        <v>10.166666666666661</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B214">
+        <v>10.33333333333333</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B215">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B216">
+        <v>10.666666666666661</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B217">
+        <v>10.83333333333333</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B218">
+        <v>10.999999999999989</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B219">
+        <v>11.166666666666661</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B220">
+        <v>11.33333333333333</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B221">
+        <v>11.499999999999989</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B222">
+        <v>11.666666666666661</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B223">
+        <v>11.83333333333333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B224">
+        <v>11.999999999999989</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B225">
+        <v>12.166666666666661</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B226">
+        <v>12.33333333333332</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B227">
+        <v>12.499999999999989</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B228">
+        <v>12.666666666666661</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B229">
+        <v>12.83333333333332</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B230">
+        <v>12.999999999999989</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B231">
+        <v>13.16666666666665</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B232">
+        <v>13.33333333333332</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B233">
+        <v>13.499999999999989</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B234">
+        <v>13.66666666666665</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B235">
+        <v>13.83333333333332</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B236">
+        <v>13.99999999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B237">
+        <v>14.16666666666665</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B238">
+        <v>14.33333333333332</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B239">
+        <v>14.49999999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B240">
+        <v>14.66666666666665</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B241">
+        <v>14.833333333333311</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>-14.99999999999998</v>
+      </c>
+      <c r="B242">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>-14.833333333333311</v>
+      </c>
+      <c r="B243">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>-14.66666666666665</v>
+      </c>
+      <c r="B244">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>-14.49999999999998</v>
+      </c>
+      <c r="B245">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>-14.33333333333332</v>
+      </c>
+      <c r="B246">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>-14.16666666666665</v>
+      </c>
+      <c r="B247">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>-13.99999999999998</v>
+      </c>
+      <c r="B248">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>-13.83333333333332</v>
+      </c>
+      <c r="B249">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>-13.66666666666665</v>
+      </c>
+      <c r="B250">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>-13.499999999999989</v>
+      </c>
+      <c r="B251">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>-13.33333333333332</v>
+      </c>
+      <c r="B252">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>-13.16666666666665</v>
+      </c>
+      <c r="B253">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>-12.999999999999989</v>
+      </c>
+      <c r="B254">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>-12.83333333333332</v>
+      </c>
+      <c r="B255">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>-12.666666666666661</v>
+      </c>
+      <c r="B256">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>-12.499999999999989</v>
+      </c>
+      <c r="B257">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>-12.33333333333332</v>
+      </c>
+      <c r="B258">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>-12.166666666666661</v>
+      </c>
+      <c r="B259">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>-11.999999999999989</v>
+      </c>
+      <c r="B260">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>-11.83333333333333</v>
+      </c>
+      <c r="B261">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>-11.666666666666661</v>
+      </c>
+      <c r="B262">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>-11.499999999999989</v>
+      </c>
+      <c r="B263">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>-11.33333333333333</v>
+      </c>
+      <c r="B264">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>-11.166666666666661</v>
+      </c>
+      <c r="B265">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>-10.999999999999989</v>
+      </c>
+      <c r="B266">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>-10.83333333333333</v>
+      </c>
+      <c r="B267">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>-10.666666666666661</v>
+      </c>
+      <c r="B268">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>-10.5</v>
+      </c>
+      <c r="B269">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>-10.33333333333333</v>
+      </c>
+      <c r="B270">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>-10.166666666666661</v>
+      </c>
+      <c r="B271">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>-9.9999999999999982</v>
+      </c>
+      <c r="B272">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>-9.8333333333333321</v>
+      </c>
+      <c r="B273">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>-9.6666666666666661</v>
+      </c>
+      <c r="B274">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>-9.5</v>
+      </c>
+      <c r="B275">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>-9.3333333333333339</v>
+      </c>
+      <c r="B276">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>-9.1666666666666679</v>
+      </c>
+      <c r="B277">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>-9.0000000000000018</v>
+      </c>
+      <c r="B278">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>-8.8333333333333357</v>
+      </c>
+      <c r="B279">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>-8.6666666666666696</v>
+      </c>
+      <c r="B280">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>-8.5000000000000036</v>
+      </c>
+      <c r="B281">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>-8.3333333333333375</v>
+      </c>
+      <c r="B282">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>-8.1666666666666714</v>
+      </c>
+      <c r="B283">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>-8.0000000000000053</v>
+      </c>
+      <c r="B284">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>-7.8333333333333384</v>
+      </c>
+      <c r="B285">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>-7.6666666666666714</v>
+      </c>
+      <c r="B286">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>-7.5000000000000044</v>
+      </c>
+      <c r="B287">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>-7.3333333333333366</v>
+      </c>
+      <c r="B288">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>-7.1666666666666714</v>
+      </c>
+      <c r="B289">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>-7.0000000000000044</v>
+      </c>
+      <c r="B290">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>-6.8333333333333366</v>
+      </c>
+      <c r="B291">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>-6.6666666666666696</v>
+      </c>
+      <c r="B292">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>-6.5000000000000027</v>
+      </c>
+      <c r="B293">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>-6.3333333333333357</v>
+      </c>
+      <c r="B294">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>-6.1666666666666687</v>
+      </c>
+      <c r="B295">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>-6.0000000000000018</v>
+      </c>
+      <c r="B296">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>-5.8333333333333348</v>
+      </c>
+      <c r="B297">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>-5.6666666666666679</v>
+      </c>
+      <c r="B298">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>-5.5000000000000009</v>
+      </c>
+      <c r="B299">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>-5.3333333333333339</v>
+      </c>
+      <c r="B300">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>-5.166666666666667</v>
+      </c>
+      <c r="B301">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>-5</v>
+      </c>
+      <c r="B302">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>-4.833333333333333</v>
+      </c>
+      <c r="B303">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>-4.6666666666666661</v>
+      </c>
+      <c r="B304">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>-4.4999999999999991</v>
+      </c>
+      <c r="B305">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>-4.3333333333333321</v>
+      </c>
+      <c r="B306">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>-4.1666666666666652</v>
+      </c>
+      <c r="B307">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>-3.9999999999999991</v>
+      </c>
+      <c r="B308">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>-3.8333333333333321</v>
+      </c>
+      <c r="B309">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>-3.6666666666666661</v>
+      </c>
+      <c r="B310">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>-3.4999999999999991</v>
+      </c>
+      <c r="B311">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>-3.333333333333333</v>
+      </c>
+      <c r="B312">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>-3.1666666666666661</v>
+      </c>
+      <c r="B313">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>-3</v>
+      </c>
+      <c r="B314">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>-2.833333333333333</v>
+      </c>
+      <c r="B315">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>-2.666666666666667</v>
+      </c>
+      <c r="B316">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>-2.5</v>
+      </c>
+      <c r="B317">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>-2.333333333333333</v>
+      </c>
+      <c r="B318">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>-2.166666666666667</v>
+      </c>
+      <c r="B319">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>-2</v>
+      </c>
+      <c r="B320">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>-1.8333333333333339</v>
+      </c>
+      <c r="B321">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>-1.666666666666667</v>
+      </c>
+      <c r="B322">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>-1.5</v>
+      </c>
+      <c r="B323">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="B324">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>-1.166666666666667</v>
+      </c>
+      <c r="B325">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>-1</v>
+      </c>
+      <c r="B326">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>-0.83333333333333337</v>
+      </c>
+      <c r="B327">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>-0.66666666666666674</v>
+      </c>
+      <c r="B328">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>-0.50000000000000011</v>
+      </c>
+      <c r="B329">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>-0.33333333333333348</v>
+      </c>
+      <c r="B330">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>-0.1666666666666668</v>
+      </c>
+      <c r="B331">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>-1.6653345369377351E-16</v>
+      </c>
+      <c r="B332">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>0.16666666666666649</v>
+      </c>
+      <c r="B333">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>0.33333333333333309</v>
+      </c>
+      <c r="B334">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="B335">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="B336">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B337">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="B338">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>1.1666666666666661</v>
+      </c>
+      <c r="B339">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="B340">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>1.5</v>
+      </c>
+      <c r="B341">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="B342">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="B343">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>2</v>
+      </c>
+      <c r="B344">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="B345">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="B346">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2.5</v>
+      </c>
+      <c r="B347">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>2.6666666666666661</v>
+      </c>
+      <c r="B348">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="B349">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>2.9999999999999991</v>
+      </c>
+      <c r="B350">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>3.1666666666666661</v>
+      </c>
+      <c r="B351">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>3.3333333333333321</v>
+      </c>
+      <c r="B352">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>3.4999999999999991</v>
+      </c>
+      <c r="B353">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>3.6666666666666652</v>
+      </c>
+      <c r="B354">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>3.8333333333333321</v>
+      </c>
+      <c r="B355">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>3.9999999999999978</v>
+      </c>
+      <c r="B356">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>4.1666666666666652</v>
+      </c>
+      <c r="B357">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>4.3333333333333321</v>
+      </c>
+      <c r="B358">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>4.4999999999999991</v>
+      </c>
+      <c r="B359">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>4.6666666666666661</v>
+      </c>
+      <c r="B360">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="B361">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>5</v>
+      </c>
+      <c r="B362">
+        <v>14.99999999999998</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>5</v>
+      </c>
+      <c r="B363">
+        <v>14.833333333333311</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>5</v>
+      </c>
+      <c r="B364">
+        <v>14.66666666666665</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>5</v>
+      </c>
+      <c r="B365">
+        <v>14.49999999999998</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>5</v>
+      </c>
+      <c r="B366">
+        <v>14.33333333333332</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>5</v>
+      </c>
+      <c r="B367">
+        <v>14.16666666666665</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>5</v>
+      </c>
+      <c r="B368">
+        <v>13.99999999999998</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>5</v>
+      </c>
+      <c r="B369">
+        <v>13.83333333333332</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>5</v>
+      </c>
+      <c r="B370">
+        <v>13.66666666666665</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>5</v>
+      </c>
+      <c r="B371">
+        <v>13.499999999999989</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>5</v>
+      </c>
+      <c r="B372">
+        <v>13.33333333333332</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>5</v>
+      </c>
+      <c r="B373">
+        <v>13.16666666666665</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>5</v>
+      </c>
+      <c r="B374">
+        <v>12.999999999999989</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>5</v>
+      </c>
+      <c r="B375">
+        <v>12.83333333333332</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>5</v>
+      </c>
+      <c r="B376">
+        <v>12.666666666666661</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>5</v>
+      </c>
+      <c r="B377">
+        <v>12.499999999999989</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>5</v>
+      </c>
+      <c r="B378">
+        <v>12.33333333333332</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>5</v>
+      </c>
+      <c r="B379">
+        <v>12.166666666666661</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>5</v>
+      </c>
+      <c r="B380">
+        <v>11.999999999999989</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>5</v>
+      </c>
+      <c r="B381">
+        <v>11.83333333333333</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>5</v>
+      </c>
+      <c r="B382">
+        <v>11.666666666666661</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>5</v>
+      </c>
+      <c r="B383">
+        <v>11.499999999999989</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>5</v>
+      </c>
+      <c r="B384">
+        <v>11.33333333333333</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>5</v>
+      </c>
+      <c r="B385">
+        <v>11.166666666666661</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>5</v>
+      </c>
+      <c r="B386">
+        <v>10.999999999999989</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>5</v>
+      </c>
+      <c r="B387">
+        <v>10.83333333333333</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>5</v>
+      </c>
+      <c r="B388">
+        <v>10.666666666666661</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>5</v>
+      </c>
+      <c r="B389">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>5</v>
+      </c>
+      <c r="B390">
+        <v>10.33333333333333</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>5</v>
+      </c>
+      <c r="B391">
+        <v>10.166666666666661</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>5</v>
+      </c>
+      <c r="B392">
+        <v>9.9999999999999982</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>5</v>
+      </c>
+      <c r="B393">
+        <v>9.8333333333333321</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>5</v>
+      </c>
+      <c r="B394">
+        <v>9.6666666666666661</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>5</v>
+      </c>
+      <c r="B395">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>5</v>
+      </c>
+      <c r="B396">
+        <v>9.3333333333333339</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>5</v>
+      </c>
+      <c r="B397">
+        <v>9.1666666666666679</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>5</v>
+      </c>
+      <c r="B398">
+        <v>9.0000000000000018</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>5</v>
+      </c>
+      <c r="B399">
+        <v>8.8333333333333357</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>5</v>
+      </c>
+      <c r="B400">
+        <v>8.6666666666666696</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>5</v>
+      </c>
+      <c r="B401">
+        <v>8.5000000000000036</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>5</v>
+      </c>
+      <c r="B402">
+        <v>8.3333333333333375</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>5</v>
+      </c>
+      <c r="B403">
+        <v>8.1666666666666714</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>5</v>
+      </c>
+      <c r="B404">
+        <v>8.0000000000000053</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>5</v>
+      </c>
+      <c r="B405">
+        <v>7.8333333333333384</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>5</v>
+      </c>
+      <c r="B406">
+        <v>7.6666666666666714</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>5</v>
+      </c>
+      <c r="B407">
+        <v>7.5000000000000044</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>5</v>
+      </c>
+      <c r="B408">
+        <v>7.3333333333333366</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>5</v>
+      </c>
+      <c r="B409">
+        <v>7.1666666666666714</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>5</v>
+      </c>
+      <c r="B410">
+        <v>7.0000000000000044</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>5</v>
+      </c>
+      <c r="B411">
+        <v>6.8333333333333366</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>5</v>
+      </c>
+      <c r="B412">
+        <v>6.6666666666666696</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>5</v>
+      </c>
+      <c r="B413">
+        <v>6.5000000000000027</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>5</v>
+      </c>
+      <c r="B414">
+        <v>6.3333333333333357</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>5</v>
+      </c>
+      <c r="B415">
+        <v>6.1666666666666687</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>5</v>
+      </c>
+      <c r="B416">
+        <v>6.0000000000000018</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>5</v>
+      </c>
+      <c r="B417">
+        <v>5.8333333333333348</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>5</v>
+      </c>
+      <c r="B418">
+        <v>5.6666666666666679</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>5</v>
+      </c>
+      <c r="B419">
+        <v>5.5000000000000009</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>5</v>
+      </c>
+      <c r="B420">
+        <v>5.3333333333333339</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>5</v>
+      </c>
+      <c r="B421">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>5</v>
+      </c>
+      <c r="B422">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>5</v>
+      </c>
+      <c r="B423">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>4.9970912655937862</v>
+      </c>
+      <c r="B424">
+        <v>5.333307949192732</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>4.9912746828100358</v>
+      </c>
+      <c r="B425">
+        <v>5.4998730870292478</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>4.9825520234362122</v>
+      </c>
+      <c r="B426">
+        <v>5.6663113428216771</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>4.970925944478858</v>
+      </c>
+      <c r="B427">
+        <v>5.8325720178649814</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>4.9563999873542484</v>
+      </c>
+      <c r="B428">
+        <v>5.9986044675469392</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>4.9389785768096397</v>
+      </c>
+      <c r="B429">
+        <v>6.1643581167749844</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>4.9186670195754481</v>
+      </c>
+      <c r="B430">
+        <v>6.3297824753818714</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>4.8954715027487703</v>
+      </c>
+      <c r="B431">
+        <v>6.4948271535054669</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>4.8693990919087318</v>
+      </c>
+      <c r="B432">
+        <v>6.6594418769379899</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>4.8404577289642434</v>
+      </c>
+      <c r="B433">
+        <v>6.8235765024400248</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>4.8086562297348197</v>
+      </c>
+      <c r="B434">
+        <v>6.9871810330146351</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>4.7740042812651931</v>
+      </c>
+      <c r="B435">
+        <v>7.1502056331369364</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>4.7365124388745494</v>
+      </c>
+      <c r="B436">
+        <v>7.3126006439344753</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>4.6961921229412704</v>
+      </c>
+      <c r="B437">
+        <v>7.4743165983138082</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>4.6530556154241838</v>
+      </c>
+      <c r="B438">
+        <v>7.6353042360286532</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>4.6071160561213507</v>
+      </c>
+      <c r="B439">
+        <v>7.7955145186850396</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>4.5583874386675616</v>
+      </c>
+      <c r="B440">
+        <v>7.9548986446788792</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>4.5068846062717371</v>
+      </c>
+      <c r="B441">
+        <v>8.1134080640614048</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>4.452623247195544</v>
+      </c>
+      <c r="B442">
+        <v>8.270994493327958</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>4.3956198899745988</v>
+      </c>
+      <c r="B443">
+        <v>8.4276099301256089</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>4.3358918983837151</v>
+      </c>
+      <c r="B444">
+        <v>8.5832066678751424</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>4.2734574661477298</v>
+      </c>
+      <c r="B445">
+        <v>8.7377373103029399</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>4.2083356113995176</v>
+      </c>
+      <c r="B446">
+        <v>8.8911547858783457</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>4.1405461708868838</v>
+      </c>
+      <c r="B447">
+        <v>9.0434123621521127</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>4.0701097939301008</v>
+      </c>
+      <c r="B448">
+        <v>9.1944636599915537</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>3.9970479361319211</v>
+      </c>
+      <c r="B449">
+        <v>9.3442626677080813</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>3.9213828528419969</v>
+      </c>
+      <c r="B450">
+        <v>9.4927637550728097</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>3.843137592377682</v>
+      </c>
+      <c r="B451">
+        <v>9.6399216872159634</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>3.7623359890032919</v>
+      </c>
+      <c r="B452">
+        <v>9.7856916384058632</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>3.679002655669958</v>
+      </c>
+      <c r="B453">
+        <v>9.9300292057032689</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>3.5931629765182831</v>
+      </c>
+      <c r="B454">
+        <v>10.07289042248695</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>3.5048430991460822</v>
+      </c>
+      <c r="B455">
+        <v>10.214231771846361</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>3.414069926643577</v>
+      </c>
+      <c r="B456">
+        <v>10.35401019983726</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>3.320871109398452</v>
+      </c>
+      <c r="B457">
+        <v>10.492183128596441</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>3.2252750366732781</v>
+      </c>
+      <c r="B458">
+        <v>10.62870846931127</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>3.1273108279578659</v>
+      </c>
+      <c r="B459">
+        <v>10.76354463504043</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>3.027008324099191</v>
+      </c>
+      <c r="B460">
+        <v>10.89665055338164</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>2.9243980782115808</v>
+      </c>
+      <c r="B461">
+        <v>11.027985678982761</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>2.8195113463699411</v>
+      </c>
+      <c r="B462">
+        <v>11.157510005892259</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>2.712380078088851</v>
+      </c>
+      <c r="B463">
+        <v>11.28518407974542</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>2.6030369065904329</v>
+      </c>
+      <c r="B464">
+        <v>11.41096900978255</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>2.4915151388639569</v>
+      </c>
+      <c r="B465">
+        <v>11.53482648069545</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>2.3778487455202071</v>
+      </c>
+      <c r="B466">
+        <v>11.65671876429864</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>2.2620723504437081</v>
+      </c>
+      <c r="B467">
+        <v>11.776608731021749</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>2.1442212202459499</v>
+      </c>
+      <c r="B468">
+        <v>11.894459861219509</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>2.024331253522841</v>
+      </c>
+      <c r="B469">
+        <v>12.010236256296009</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>1.902438969919646</v>
+      </c>
+      <c r="B470">
+        <v>12.12390264963976</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>1.778581499006747</v>
+      </c>
+      <c r="B471">
+        <v>12.235424417366239</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>1.6527965689696189</v>
+      </c>
+      <c r="B472">
+        <v>12.34476758886465</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>1.5251224951164559</v>
+      </c>
+      <c r="B473">
+        <v>12.451898857145739</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>1.3955981682069609</v>
+      </c>
+      <c r="B474">
+        <v>12.556785588987379</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>1.2642630426058401</v>
+      </c>
+      <c r="B475">
+        <v>12.65939583487499</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>1.131157124264625</v>
+      </c>
+      <c r="B476">
+        <v>12.759698338733671</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>0.99632095853546687</v>
+      </c>
+      <c r="B477">
+        <v>12.857662547449079</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>0.85979561782063496</v>
+      </c>
+      <c r="B478">
+        <v>12.95325862017426</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>0.72162268906146132</v>
+      </c>
+      <c r="B479">
+        <v>13.046457437419379</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>0.58184426107055731</v>
+      </c>
+      <c r="B480">
+        <v>13.137230609921881</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>0.44050291171115302</v>
+      </c>
+      <c r="B481">
+        <v>13.225550487294081</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>0.29764169492746761</v>
+      </c>
+      <c r="B482">
+        <v>13.31139016644576</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>0.15330412763006121</v>
+      </c>
+      <c r="B483">
+        <v>13.39472349977909</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>7.5341764401619096E-3</v>
+      </c>
+      <c r="B484">
+        <v>13.47552510315348</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>-0.1396237557029926</v>
+      </c>
+      <c r="B485">
+        <v>13.553770363617801</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>-0.28812484306772052</v>
+      </c>
+      <c r="B486">
+        <v>13.629435446907721</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>-0.43792385078424828</v>
+      </c>
+      <c r="B487">
+        <v>13.702497304705901</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>-0.58897514862369005</v>
+      </c>
+      <c r="B488">
+        <v>13.772933681662691</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>-0.74123272489745684</v>
+      </c>
+      <c r="B489">
+        <v>13.840723122175319</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>-0.89465020047286359</v>
+      </c>
+      <c r="B490">
+        <v>13.905844976923531</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>-1.049180842900661</v>
+      </c>
+      <c r="B491">
+        <v>13.968279409159519</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>-1.204777580650195</v>
+      </c>
+      <c r="B492">
+        <v>14.028007400750401</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>-1.3613930174478459</v>
+      </c>
+      <c r="B493">
+        <v>14.08501075797135</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>-1.5189794467143991</v>
+      </c>
+      <c r="B494">
+        <v>14.13927211704754</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>-1.6774888660969249</v>
+      </c>
+      <c r="B495">
+        <v>14.190774949443361</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>-1.836872992090764</v>
+      </c>
+      <c r="B496">
+        <v>14.239503566897151</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>-1.9970832747471501</v>
+      </c>
+      <c r="B497">
+        <v>14.28544312619999</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>-2.1580709124619948</v>
+      </c>
+      <c r="B498">
+        <v>14.328579633717069</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>-2.3197868668413282</v>
+      </c>
+      <c r="B499">
+        <v>14.36889994965035</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>-2.482181877638868</v>
+      </c>
+      <c r="B500">
+        <v>14.406391792040999</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>-2.6452064777611679</v>
+      </c>
+      <c r="B501">
+        <v>14.44104374051062</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>-2.8088110083357791</v>
+      </c>
+      <c r="B502">
+        <v>14.47284523974005</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>-2.972945633837814</v>
+      </c>
+      <c r="B503">
+        <v>14.501786602684531</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>-3.137560357270337</v>
+      </c>
+      <c r="B504">
+        <v>14.527859013524569</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>-3.302605035393932</v>
+      </c>
+      <c r="B505">
+        <v>14.55105453035125</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>-3.4680293940008191</v>
+      </c>
+      <c r="B506">
+        <v>14.57136608758544</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>-3.6337830432288651</v>
+      </c>
+      <c r="B507">
+        <v>14.588787498130049</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>-3.7998154929108221</v>
+      </c>
+      <c r="B508">
+        <v>14.603313455254661</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>-3.9660761679541259</v>
+      </c>
+      <c r="B509">
+        <v>14.614939534212009</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>-4.1325144237465556</v>
+      </c>
+      <c r="B510">
+        <v>14.62366219358584</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>-4.2990795615830706</v>
+      </c>
+      <c r="B511">
+        <v>14.62947877636959</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>-4.4657208441091374</v>
+      </c>
+      <c r="B512">
+        <v>14.6323875107758</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>-4.6323875107758026</v>
+      </c>
+      <c r="B513">
+        <v>14.6323875107758</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>-4.7990287933018676</v>
+      </c>
+      <c r="B514">
+        <v>14.62947877636959</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>-4.9655939311383843</v>
+      </c>
+      <c r="B515">
+        <v>14.62366219358584</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>-5.1320321869308136</v>
+      </c>
+      <c r="B516">
+        <v>14.614939534212009</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>-5.2982928619741179</v>
+      </c>
+      <c r="B517">
+        <v>14.603313455254661</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>-5.4643253116560757</v>
+      </c>
+      <c r="B518">
+        <v>14.588787498130049</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>-5.6300789608841209</v>
+      </c>
+      <c r="B519">
+        <v>14.57136608758544</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>-5.7955033194910079</v>
+      </c>
+      <c r="B520">
+        <v>14.55105453035125</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>-5.9605479976146034</v>
+      </c>
+      <c r="B521">
+        <v>14.527859013524569</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>-6.1251627210471256</v>
+      </c>
+      <c r="B522">
+        <v>14.501786602684531</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>-6.2892973465491613</v>
+      </c>
+      <c r="B523">
+        <v>14.47284523974005</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>-6.4529018771237716</v>
+      </c>
+      <c r="B524">
+        <v>14.44104374051062</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>-6.6159264772460729</v>
+      </c>
+      <c r="B525">
+        <v>14.406391792040999</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>-6.7783214880436118</v>
+      </c>
+      <c r="B526">
+        <v>14.36889994965035</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>-6.9400374424229447</v>
+      </c>
+      <c r="B527">
+        <v>14.328579633717069</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>-7.1010250801377897</v>
+      </c>
+      <c r="B528">
+        <v>14.28544312619999</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>-7.2612353627941761</v>
+      </c>
+      <c r="B529">
+        <v>14.239503566897151</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>-7.4206194887880157</v>
+      </c>
+      <c r="B530">
+        <v>14.190774949443361</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>-7.5791289081705413</v>
+      </c>
+      <c r="B531">
+        <v>14.13927211704754</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>-7.7367153374370936</v>
+      </c>
+      <c r="B532">
+        <v>14.08501075797135</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>-7.8933307742347463</v>
+      </c>
+      <c r="B533">
+        <v>14.028007400750401</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>-8.0489275119842798</v>
+      </c>
+      <c r="B534">
+        <v>13.968279409159519</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>-8.2034581544120773</v>
+      </c>
+      <c r="B535">
+        <v>13.905844976923531</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>-8.3568756299874831</v>
+      </c>
+      <c r="B536">
+        <v>13.840723122175319</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>-8.5091332062612501</v>
+      </c>
+      <c r="B537">
+        <v>13.772933681662691</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>-8.6601845041006911</v>
+      </c>
+      <c r="B538">
+        <v>13.702497304705901</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>-8.8099835118172187</v>
+      </c>
+      <c r="B539">
+        <v>13.629435446907721</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>-8.9584845991819471</v>
+      </c>
+      <c r="B540">
+        <v>13.553770363617801</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>-9.1056425313251008</v>
+      </c>
+      <c r="B541">
+        <v>13.47552510315348</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>-9.2514124825150006</v>
+      </c>
+      <c r="B542">
+        <v>13.39472349977909</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>-9.3957500498124062</v>
+      </c>
+      <c r="B543">
+        <v>13.31139016644576</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>-9.5386112665960923</v>
+      </c>
+      <c r="B544">
+        <v>13.225550487294081</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>-9.6799526159554965</v>
+      </c>
+      <c r="B545">
+        <v>13.137230609921881</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>-9.8197310439464012</v>
+      </c>
+      <c r="B546">
+        <v>13.046457437419379</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>-9.9579039727055747</v>
+      </c>
+      <c r="B547">
+        <v>12.95325862017426</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>-10.094429313420409</v>
+      </c>
+      <c r="B548">
+        <v>12.857662547449079</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>-10.229265479149561</v>
+      </c>
+      <c r="B549">
+        <v>12.759698338733671</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>-10.362371397490779</v>
+      </c>
+      <c r="B550">
+        <v>12.65939583487499</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>-10.4937065230919</v>
+      </c>
+      <c r="B551">
+        <v>12.556785588987379</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>-10.62323085000139</v>
+      </c>
+      <c r="B552">
+        <v>12.451898857145739</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>-10.750904923854559</v>
+      </c>
+      <c r="B553">
+        <v>12.34476758886465</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>-10.876689853891691</v>
+      </c>
+      <c r="B554">
+        <v>12.235424417366239</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>-11.00054732480459</v>
+      </c>
+      <c r="B555">
+        <v>12.12390264963976</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>-11.122439608407779</v>
+      </c>
+      <c r="B556">
+        <v>12.010236256296009</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>-11.24232957513089</v>
+      </c>
+      <c r="B557">
+        <v>11.894459861219509</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>-11.36018070532865</v>
+      </c>
+      <c r="B558">
+        <v>11.776608731021749</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>-11.47595710040515</v>
+      </c>
+      <c r="B559">
+        <v>11.65671876429864</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>-11.589623493748901</v>
+      </c>
+      <c r="B560">
+        <v>11.53482648069545</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>-11.70114526147537</v>
+      </c>
+      <c r="B561">
+        <v>11.41096900978255</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>-11.81048843297379</v>
+      </c>
+      <c r="B562">
+        <v>11.28518407974542</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>-11.91761970125488</v>
+      </c>
+      <c r="B563">
+        <v>11.157510005892259</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>-12.02250643309652</v>
+      </c>
+      <c r="B564">
+        <v>11.027985678982761</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>-12.12511667898413</v>
+      </c>
+      <c r="B565">
+        <v>10.89665055338164</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>-12.22541918284281</v>
+      </c>
+      <c r="B566">
+        <v>10.76354463504043</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>-12.32338339155822</v>
+      </c>
+      <c r="B567">
+        <v>10.62870846931127</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>-12.418979464283391</v>
+      </c>
+      <c r="B568">
+        <v>10.492183128596441</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>-12.51217828152852</v>
+      </c>
+      <c r="B569">
+        <v>10.35401019983726</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>-12.60295145403102</v>
+      </c>
+      <c r="B570">
+        <v>10.214231771846361</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>-12.69127133140322</v>
+      </c>
+      <c r="B571">
+        <v>10.07289042248695</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>-12.777111010554901</v>
+      </c>
+      <c r="B572">
+        <v>9.9300292057032689</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>-12.860444343888229</v>
+      </c>
+      <c r="B573">
+        <v>9.7856916384058632</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>-12.941245947262621</v>
+      </c>
+      <c r="B574">
+        <v>9.6399216872159634</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>-13.01949120772694</v>
+      </c>
+      <c r="B575">
+        <v>9.4927637550728097</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>-13.09515629101686</v>
+      </c>
+      <c r="B576">
+        <v>9.3442626677080813</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>-13.16821814881504</v>
+      </c>
+      <c r="B577">
+        <v>9.1944636599915537</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>-13.238654525771819</v>
+      </c>
+      <c r="B578">
+        <v>9.0434123621521127</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>-13.30644396628446</v>
+      </c>
+      <c r="B579">
+        <v>8.8911547858783457</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>-13.37156582103267</v>
+      </c>
+      <c r="B580">
+        <v>8.7377373103029399</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>-13.43400025326866</v>
+      </c>
+      <c r="B581">
+        <v>8.5832066678751424</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>-13.49372824485954</v>
+      </c>
+      <c r="B582">
+        <v>8.4276099301256089</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>-13.55073160208048</v>
+      </c>
+      <c r="B583">
+        <v>8.270994493327958</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>-13.604992961156681</v>
+      </c>
+      <c r="B584">
+        <v>8.1134080640614048</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>-13.6564957935525</v>
+      </c>
+      <c r="B585">
+        <v>7.9548986446788792</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>-13.70522441100629</v>
+      </c>
+      <c r="B586">
+        <v>7.7955145186850396</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>-13.751163970309131</v>
+      </c>
+      <c r="B587">
+        <v>7.6353042360286532</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>-13.79430047782621</v>
+      </c>
+      <c r="B588">
+        <v>7.4743165983138082</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>-13.834620793759489</v>
+      </c>
+      <c r="B589">
+        <v>7.3126006439344753</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>-13.872112636150129</v>
+      </c>
+      <c r="B590">
+        <v>7.1502056331369364</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>-13.90676458461976</v>
+      </c>
+      <c r="B591">
+        <v>6.9871810330146351</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>-13.93856608384918</v>
+      </c>
+      <c r="B592">
+        <v>6.8235765024400248</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>-13.96750744679367</v>
+      </c>
+      <c r="B593">
+        <v>6.6594418769379899</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>-13.99357985763371</v>
+      </c>
+      <c r="B594">
+        <v>6.4948271535054669</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>-14.016775374460391</v>
+      </c>
+      <c r="B595">
+        <v>6.3297824753818714</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>-14.03708693169458</v>
+      </c>
+      <c r="B596">
+        <v>6.1643581167749844</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>-14.05450834223919</v>
+      </c>
+      <c r="B597">
+        <v>5.9986044675469392</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>-14.0690342993638</v>
+      </c>
+      <c r="B598">
+        <v>5.8325720178649814</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>-14.08066037832115</v>
+      </c>
+      <c r="B599">
+        <v>5.6663113428216771</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>-14.08938303769497</v>
+      </c>
+      <c r="B600">
+        <v>5.4998730870292478</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>-14.09519962047872</v>
+      </c>
+      <c r="B601">
+        <v>5.333307949192732</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>-14.098108354884941</v>
+      </c>
+      <c r="B602">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>-14.098108354884941</v>
+      </c>
+      <c r="B603">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>-14.09519962047872</v>
+      </c>
+      <c r="B604">
+        <v>4.833358717473935</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>-14.08938303769497</v>
+      </c>
+      <c r="B605">
+        <v>4.6667935796374191</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>-14.08066037832115</v>
+      </c>
+      <c r="B606">
+        <v>4.5003553238449898</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>-14.0690342993638</v>
+      </c>
+      <c r="B607">
+        <v>4.3340946488016856</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>-14.05450834223919</v>
+      </c>
+      <c r="B608">
+        <v>4.1680621991197278</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>-14.03708693169458</v>
+      </c>
+      <c r="B609">
+        <v>4.0023085498916826</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>-14.016775374460391</v>
+      </c>
+      <c r="B610">
+        <v>3.836884191284796</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>-13.99357985763371</v>
+      </c>
+      <c r="B611">
+        <v>3.6718395131612001</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>-13.96750744679367</v>
+      </c>
+      <c r="B612">
+        <v>3.507224789728677</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>-13.93856608384918</v>
+      </c>
+      <c r="B613">
+        <v>3.3430901642266431</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>-13.90676458461976</v>
+      </c>
+      <c r="B614">
+        <v>3.1794856336520319</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>-13.872112636150129</v>
+      </c>
+      <c r="B615">
+        <v>3.0164610335297311</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>-13.834620793759489</v>
+      </c>
+      <c r="B616">
+        <v>2.8540660227321921</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>-13.79430047782621</v>
+      </c>
+      <c r="B617">
+        <v>2.6923500683528592</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>-13.751163970309131</v>
+      </c>
+      <c r="B618">
+        <v>2.5313624306380138</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>-13.70522441100629</v>
+      </c>
+      <c r="B619">
+        <v>2.3711521479816269</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>-13.6564957935525</v>
+      </c>
+      <c r="B620">
+        <v>2.2117680219877882</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>-13.604992961156681</v>
+      </c>
+      <c r="B621">
+        <v>2.0532586026052631</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>-13.55073160208048</v>
+      </c>
+      <c r="B622">
+        <v>1.8956721733387101</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>-13.49372824485954</v>
+      </c>
+      <c r="B623">
+        <v>1.739056736541059</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>-13.43400025326866</v>
+      </c>
+      <c r="B624">
+        <v>1.583459998791525</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>-13.37156582103267</v>
+      </c>
+      <c r="B625">
+        <v>1.4289293563637271</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>-13.30644396628446</v>
+      </c>
+      <c r="B626">
+        <v>1.2755118807883199</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>-13.238654525771819</v>
+      </c>
+      <c r="B627">
+        <v>1.123254304514554</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>-13.16821814881504</v>
+      </c>
+      <c r="B628">
+        <v>0.97220300667511195</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>-13.09515629101686</v>
+      </c>
+      <c r="B629">
+        <v>0.82240399895858407</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>-13.01949120772694</v>
+      </c>
+      <c r="B630">
+        <v>0.67390291159385607</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>-12.941245947262621</v>
+      </c>
+      <c r="B631">
+        <v>0.52674497945070153</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>-12.860444343888229</v>
+      </c>
+      <c r="B632">
+        <v>0.38097502826080221</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>-12.777111010554901</v>
+      </c>
+      <c r="B633">
+        <v>0.2366374609633958</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>-12.69127133140322</v>
+      </c>
+      <c r="B634">
+        <v>9.3776244179710394E-2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>-12.60295145403102</v>
+      </c>
+      <c r="B635">
+        <v>-4.7565105179693951E-2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>-12.51217828152852</v>
+      </c>
+      <c r="B636">
+        <v>-0.18734353317059799</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>-12.418979464283391</v>
+      </c>
+      <c r="B637">
+        <v>-0.32551646192977163</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>-12.32338339155822</v>
+      </c>
+      <c r="B638">
+        <v>-0.46204180264460348</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>-12.22541918284281</v>
+      </c>
+      <c r="B639">
+        <v>-0.5968779683737615</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>-12.12511667898413</v>
+      </c>
+      <c r="B640">
+        <v>-0.72998388671497694</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>-12.02250643309652</v>
+      </c>
+      <c r="B641">
+        <v>-0.8613190123160972</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>-11.91761970125488</v>
+      </c>
+      <c r="B642">
+        <v>-0.99084333922559231</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>-11.81048843297379</v>
+      </c>
+      <c r="B643">
+        <v>-1.118517413078755</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>-11.70114526147537</v>
+      </c>
+      <c r="B644">
+        <v>-1.2443023431158839</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>-11.589623493748901</v>
+      </c>
+      <c r="B645">
+        <v>-1.368159814028783</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>-11.47595710040515</v>
+      </c>
+      <c r="B646">
+        <v>-1.490052097631978</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>-11.36018070532865</v>
+      </c>
+      <c r="B647">
+        <v>-1.609942064355087</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>-11.24232957513089</v>
+      </c>
+      <c r="B648">
+        <v>-1.7277931945528451</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>-11.122439608407779</v>
+      </c>
+      <c r="B649">
+        <v>-1.843569589629344</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>-11.00054732480459</v>
+      </c>
+      <c r="B650">
+        <v>-1.9572359829730941</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>-10.876689853891691</v>
+      </c>
+      <c r="B651">
+        <v>-2.0687577506995698</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>-10.750904923854559</v>
+      </c>
+      <c r="B652">
+        <v>-2.1781009221979879</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>-10.62323085000139</v>
+      </c>
+      <c r="B653">
+        <v>-2.285232190479078</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>-10.4937065230919</v>
+      </c>
+      <c r="B654">
+        <v>-2.3901189223207182</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>-10.362371397490779</v>
+      </c>
+      <c r="B655">
+        <v>-2.492729168208327</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>-10.229265479149561</v>
+      </c>
+      <c r="B656">
+        <v>-2.5930316720670019</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>-10.094429313420409</v>
+      </c>
+      <c r="B657">
+        <v>-2.690995880782415</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>-9.9579039727055747</v>
+      </c>
+      <c r="B658">
+        <v>-2.7865919535075889</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>-9.8197310439464012</v>
+      </c>
+      <c r="B659">
+        <v>-2.8797907707527139</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>-9.6799526159554965</v>
+      </c>
+      <c r="B660">
+        <v>-2.9705639432552182</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>-9.5386112665960923</v>
+      </c>
+      <c r="B661">
+        <v>-3.0588838206274191</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>-9.3957500498124062</v>
+      </c>
+      <c r="B662">
+        <v>-3.1447234997790949</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>-9.2514124825150006</v>
+      </c>
+      <c r="B663">
+        <v>-3.228056833112428</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>-9.1056425313251008</v>
+      </c>
+      <c r="B664">
+        <v>-3.3088584364868181</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>-8.9584845991819471</v>
+      </c>
+      <c r="B665">
+        <v>-3.387103696951133</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>-8.8099835118172187</v>
+      </c>
+      <c r="B666">
+        <v>-3.4627687802410581</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>-8.6601845041006911</v>
+      </c>
+      <c r="B667">
+        <v>-3.5358306380392368</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>-8.5091332062612501</v>
+      </c>
+      <c r="B668">
+        <v>-3.6062670149960199</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>-8.3568756299874831</v>
+      </c>
+      <c r="B669">
+        <v>-3.6740564555086541</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>-8.2034581544120773</v>
+      </c>
+      <c r="B670">
+        <v>-3.7391783102568659</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>-8.0489275119842798</v>
+      </c>
+      <c r="B671">
+        <v>-3.8016127424928512</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>-7.8933307742347463</v>
+      </c>
+      <c r="B672">
+        <v>-3.861340734083734</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>-7.7367153374370936</v>
+      </c>
+      <c r="B673">
+        <v>-3.9183440913046792</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>-7.5791289081705413</v>
+      </c>
+      <c r="B674">
+        <v>-3.9726054503808719</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>-7.4206194887880157</v>
+      </c>
+      <c r="B675">
+        <v>-4.0241082827766963</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>-7.2612353627941761</v>
+      </c>
+      <c r="B676">
+        <v>-4.0728369002304854</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>-7.1010250801377897</v>
+      </c>
+      <c r="B677">
+        <v>-4.1187764595333194</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>-6.9400374424229447</v>
+      </c>
+      <c r="B678">
+        <v>-4.1619129670504051</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>-6.7783214880436118</v>
+      </c>
+      <c r="B679">
+        <v>-4.2022332829836833</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>-6.6159264772460729</v>
+      </c>
+      <c r="B680">
+        <v>-4.2397251253743278</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>-6.4529018771237716</v>
+      </c>
+      <c r="B681">
+        <v>-4.2743770738439544</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>-6.2892973465491613</v>
+      </c>
+      <c r="B682">
+        <v>-4.3061785730733781</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>-6.1251627210471256</v>
+      </c>
+      <c r="B683">
+        <v>-4.3351199360178656</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>-5.9605479976146034</v>
+      </c>
+      <c r="B684">
+        <v>-4.361192346857905</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>-5.7955033194910079</v>
+      </c>
+      <c r="B685">
+        <v>-4.3843878636845828</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>-5.6300789608841209</v>
+      </c>
+      <c r="B686">
+        <v>-4.4046994209187744</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>-5.4643253116560757</v>
+      </c>
+      <c r="B687">
+        <v>-4.4221208314633822</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>-5.2982928619741179</v>
+      </c>
+      <c r="B688">
+        <v>-4.4366467885879919</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>-5.1320321869308136</v>
+      </c>
+      <c r="B689">
+        <v>-4.448272867545346</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>-4.9655939311383843</v>
+      </c>
+      <c r="B690">
+        <v>-4.4569955269191697</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>-4.7990287933018676</v>
+      </c>
+      <c r="B691">
+        <v>-4.4628121097029201</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>-4.6323875107758026</v>
+      </c>
+      <c r="B692">
+        <v>-4.4657208441091338</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>-4.4657208441091374</v>
+      </c>
+      <c r="B693">
+        <v>-4.4657208441091338</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>-4.2990795615830706</v>
+      </c>
+      <c r="B694">
+        <v>-4.4628121097029201</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>-4.1325144237465556</v>
+      </c>
+      <c r="B695">
+        <v>-4.4569955269191697</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>-3.9660761679541272</v>
+      </c>
+      <c r="B696">
+        <v>-4.448272867545346</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>-3.799815492910823</v>
+      </c>
+      <c r="B697">
+        <v>-4.4366467885879919</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>-3.6337830432288651</v>
+      </c>
+      <c r="B698">
+        <v>-4.4221208314633822</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>-3.46802939400082</v>
+      </c>
+      <c r="B699">
+        <v>-4.4046994209187744</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>-3.302605035393932</v>
+      </c>
+      <c r="B700">
+        <v>-4.3843878636845819</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>-3.137560357270337</v>
+      </c>
+      <c r="B701">
+        <v>-4.3611923468579041</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>-2.972945633837814</v>
+      </c>
+      <c r="B702">
+        <v>-4.3351199360178656</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>-2.80881100833578</v>
+      </c>
+      <c r="B703">
+        <v>-4.3061785730733773</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>-2.6452064777611688</v>
+      </c>
+      <c r="B704">
+        <v>-4.2743770738439526</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>-2.482181877638868</v>
+      </c>
+      <c r="B705">
+        <v>-4.2397251253743269</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>-2.3197868668413291</v>
+      </c>
+      <c r="B706">
+        <v>-4.2022332829836824</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>-2.1580709124619961</v>
+      </c>
+      <c r="B707">
+        <v>-4.1619129670504043</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>-1.997083274747151</v>
+      </c>
+      <c r="B708">
+        <v>-4.1187764595333176</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>-1.836872992090764</v>
+      </c>
+      <c r="B709">
+        <v>-4.0728369002304854</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>-1.6774888660969249</v>
+      </c>
+      <c r="B710">
+        <v>-4.0241082827766954</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>-1.5189794467144</v>
+      </c>
+      <c r="B711">
+        <v>-3.972605450380871</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>-1.361393017447847</v>
+      </c>
+      <c r="B712">
+        <v>-3.9183440913046779</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>-1.204777580650195</v>
+      </c>
+      <c r="B713">
+        <v>-3.861340734083734</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>-1.0491808429006619</v>
+      </c>
+      <c r="B714">
+        <v>-3.8016127424928499</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>-0.89465020047286403</v>
+      </c>
+      <c r="B715">
+        <v>-3.739178310256865</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>-0.74123272489745728</v>
+      </c>
+      <c r="B716">
+        <v>-3.6740564555086528</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>-0.58897514862369049</v>
+      </c>
+      <c r="B717">
+        <v>-3.606267014996019</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>-0.43792385078424889</v>
+      </c>
+      <c r="B718">
+        <v>-3.5358306380392359</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>-0.28812484306772113</v>
+      </c>
+      <c r="B719">
+        <v>-3.4627687802410572</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>-0.1396237557029931</v>
+      </c>
+      <c r="B720">
+        <v>-3.3871036969511321</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>7.5341764401614386E-3</v>
+      </c>
+      <c r="B721">
+        <v>-3.3088584364868172</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>0.15330412763006071</v>
+      </c>
+      <c r="B722">
+        <v>-3.228056833112428</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>0.29764169492746723</v>
+      </c>
+      <c r="B723">
+        <v>-3.144723499779094</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>0.44050291171115252</v>
+      </c>
+      <c r="B724">
+        <v>-3.0588838206274178</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>0.58184426107055687</v>
+      </c>
+      <c r="B725">
+        <v>-2.9705639432552169</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>0.72162268906146088</v>
+      </c>
+      <c r="B726">
+        <v>-2.8797907707527131</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>0.85979561782063452</v>
+      </c>
+      <c r="B727">
+        <v>-2.786591953507588</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>0.99632095853546643</v>
+      </c>
+      <c r="B728">
+        <v>-2.6909958807824141</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>1.1311571242646239</v>
+      </c>
+      <c r="B729">
+        <v>-2.5930316720670019</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>1.2642630426058401</v>
+      </c>
+      <c r="B730">
+        <v>-2.492729168208327</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>1.39559816820696</v>
+      </c>
+      <c r="B731">
+        <v>-2.3901189223207182</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>1.525122495116455</v>
+      </c>
+      <c r="B732">
+        <v>-2.285232190479078</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>1.652796568969618</v>
+      </c>
+      <c r="B733">
+        <v>-2.1781009221979879</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>1.778581499006747</v>
+      </c>
+      <c r="B734">
+        <v>-2.0687577506995698</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>1.902438969919646</v>
+      </c>
+      <c r="B735">
+        <v>-1.9572359829730941</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>2.024331253522841</v>
+      </c>
+      <c r="B736">
+        <v>-1.843569589629344</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>2.1442212202459499</v>
+      </c>
+      <c r="B737">
+        <v>-1.727793194552844</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>2.2620723504437081</v>
+      </c>
+      <c r="B738">
+        <v>-1.609942064355087</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>2.3778487455202071</v>
+      </c>
+      <c r="B739">
+        <v>-1.490052097631978</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>2.4915151388639569</v>
+      </c>
+      <c r="B740">
+        <v>-1.368159814028783</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>2.6030369065904329</v>
+      </c>
+      <c r="B741">
+        <v>-1.2443023431158839</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>2.712380078088851</v>
+      </c>
+      <c r="B742">
+        <v>-1.118517413078755</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>2.8195113463699411</v>
+      </c>
+      <c r="B743">
+        <v>-0.99084333922559242</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>2.9243980782115808</v>
+      </c>
+      <c r="B744">
+        <v>-0.86131901231609731</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>3.027008324099191</v>
+      </c>
+      <c r="B745">
+        <v>-0.72998388671497705</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>3.1273108279578659</v>
+      </c>
+      <c r="B746">
+        <v>-0.59687796837376161</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>3.2252750366732781</v>
+      </c>
+      <c r="B747">
+        <v>-0.46204180264460371</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>3.320871109398452</v>
+      </c>
+      <c r="B748">
+        <v>-0.32551646192977179</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>3.414069926643577</v>
+      </c>
+      <c r="B749">
+        <v>-0.18734353317059821</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>3.5048430991460822</v>
+      </c>
+      <c r="B750">
+        <v>-4.7565105179694138E-2</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>3.5931629765182831</v>
+      </c>
+      <c r="B751">
+        <v>9.3776244179710144E-2</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>3.679002655669958</v>
+      </c>
+      <c r="B752">
+        <v>0.2366374609633955</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>3.7623359890032919</v>
+      </c>
+      <c r="B753">
+        <v>0.38097502826080187</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>3.843137592377682</v>
+      </c>
+      <c r="B754">
+        <v>0.5267449794507012</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>3.9213828528419969</v>
+      </c>
+      <c r="B755">
+        <v>0.67390291159385574</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>3.9970479361319211</v>
+      </c>
+      <c r="B756">
+        <v>0.82240399895858363</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>4.0701097939301008</v>
+      </c>
+      <c r="B757">
+        <v>0.97220300667511139</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>4.1405461708868838</v>
+      </c>
+      <c r="B758">
+        <v>1.1232543045145531</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>4.2083356113995176</v>
+      </c>
+      <c r="B759">
+        <v>1.2755118807883199</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>4.2734574661477298</v>
+      </c>
+      <c r="B760">
+        <v>1.4289293563637271</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>4.3358918983837151</v>
+      </c>
+      <c r="B761">
+        <v>1.583459998791525</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>4.3956198899745988</v>
+      </c>
+      <c r="B762">
+        <v>1.7390567365410581</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>4.452623247195544</v>
+      </c>
+      <c r="B763">
+        <v>1.895672173338709</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>4.5068846062717371</v>
+      </c>
+      <c r="B764">
+        <v>2.0532586026052622</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>4.5583874386675616</v>
+      </c>
+      <c r="B765">
+        <v>2.2117680219877882</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>4.6071160561213507</v>
+      </c>
+      <c r="B766">
+        <v>2.3711521479816269</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>4.6530556154241838</v>
+      </c>
+      <c r="B767">
+        <v>2.5313624306380129</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>4.6961921229412704</v>
+      </c>
+      <c r="B768">
+        <v>2.6923500683528578</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>4.7365124388745494</v>
+      </c>
+      <c r="B769">
+        <v>2.8540660227321908</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>4.7740042812651931</v>
+      </c>
+      <c r="B770">
+        <v>3.0164610335297302</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>4.8086562297348197</v>
+      </c>
+      <c r="B771">
+        <v>3.179485633652031</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>4.8404577289642434</v>
+      </c>
+      <c r="B772">
+        <v>3.3430901642266422</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>4.8693990919087318</v>
+      </c>
+      <c r="B773">
+        <v>3.507224789728677</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>4.8954715027487703</v>
+      </c>
+      <c r="B774">
+        <v>3.6718395131612001</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>4.9186670195754481</v>
+      </c>
+      <c r="B775">
+        <v>3.8368841912847951</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>4.9389785768096388</v>
+      </c>
+      <c r="B776">
+        <v>4.0023085498916817</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>4.9563999873542466</v>
+      </c>
+      <c r="B777">
+        <v>4.1680621991197269</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>4.9709259444788572</v>
+      </c>
+      <c r="B778">
+        <v>4.3340946488016847</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>4.9825520234362113</v>
+      </c>
+      <c r="B779">
+        <v>4.5003553238449889</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>4.9912746828100349</v>
+      </c>
+      <c r="B780">
+        <v>4.6667935796374183</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>4.9970912655937854</v>
+      </c>
+      <c r="B781">
+        <v>4.8333587174739341</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="B782">
+        <v>4.9999999999999991</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>